--- a/post/scaling/scaling_bbserv.xlsx
+++ b/post/scaling/scaling_bbserv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevlahan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevlahan/wavetrisk_hydrostatic/post/scaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F321D-0AED-E34A-AEBA-9FA3AEE0A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B64746-3DE3-5043-B075-C7FA287661B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="18460" windowHeight="14580" xr2:uid="{1770BEEB-2441-1E41-98A4-17E82C675AC2}"/>
+    <workbookView xWindow="13260" yWindow="520" windowWidth="22840" windowHeight="16560" xr2:uid="{1770BEEB-2441-1E41-98A4-17E82C675AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="J8" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>cores</t>
   </si>
@@ -102,6 +102,9 @@
   <si>
     <t>2560 domains, 10dt</t>
   </si>
+  <si>
+    <t>640 domains: 1024 cores/domain</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +159,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +224,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F33672-866A-3949-B6BA-253A789E829F}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,11 +724,11 @@
         <v>2.3431684067181116</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ref="H8:H28" si="3">E$7/E8/(A8/A$7)</f>
+        <f t="shared" ref="H8:H27" si="3">E$7/E8/(A8/A$7)</f>
         <v>0.93726736268724464</v>
       </c>
       <c r="I8" s="17">
-        <f t="shared" ref="I8:I28" si="4">F8/($A$2/A8)*1000</f>
+        <f t="shared" ref="I8:I27" si="4">F8/($A$2/A8)*1000</f>
         <v>4.2018762149773721E-3</v>
       </c>
     </row>
@@ -938,7 +952,7 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="18">
         <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
@@ -973,7 +987,7 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="18">
         <f t="shared" si="7"/>
         <v>5.333333333333333</v>
       </c>
@@ -997,7 +1011,7 @@
         <v>5.126937478828494E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>128</v>
       </c>
@@ -1032,7 +1046,7 @@
         <v>4.7363136709177517E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>140</v>
       </c>
@@ -1043,7 +1057,7 @@
         <f>A18/B18</f>
         <v>20</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="18">
         <f t="shared" si="7"/>
         <v>4.5714285714285712</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>5.0735318800906974E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>160</v>
       </c>
@@ -1102,7 +1116,7 @@
         <v>4.7912451439052007E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>192</v>
       </c>
@@ -1113,7 +1127,7 @@
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="18">
         <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
@@ -1137,7 +1151,7 @@
         <v>5.6030102447197118E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>200</v>
       </c>
@@ -1148,7 +1162,7 @@
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="18">
         <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
@@ -1172,7 +1186,7 @@
         <v>5.7983221486750834E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>224</v>
       </c>
@@ -1183,7 +1197,7 @@
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="18">
         <f t="shared" si="7"/>
         <v>2.8571428571428572</v>
       </c>
@@ -1206,8 +1220,9 @@
         <f t="shared" si="4"/>
         <v>5.3405598737796822E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>240</v>
       </c>
@@ -1218,7 +1233,7 @@
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="18">
         <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>5.6304759812134371E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>256</v>
       </c>
@@ -1253,7 +1268,7 @@
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="18">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
@@ -1277,7 +1292,7 @@
         <v>6.054669022616508E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>280</v>
       </c>
@@ -1288,7 +1303,7 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="18">
         <f t="shared" si="7"/>
         <v>2.2857142857142856</v>
       </c>
@@ -1312,7 +1327,7 @@
         <v>6.3552662497978222E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>300</v>
       </c>
@@ -1323,7 +1338,7 @@
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="18">
         <f t="shared" si="7"/>
         <v>2.1333333333333333</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>6.7519935547071704E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>320</v>
       </c>
@@ -1382,7 +1397,7 @@
         <v>5.5663892627280795E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>384</v>
       </c>
@@ -1393,7 +1408,7 @@
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="18">
         <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
@@ -1417,38 +1432,28 @@
         <v>6.0864072070092564E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -1479,24 +1484,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="3">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6">
-        <f>2560/A33</f>
-        <v>1280</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2509.5</v>
+      <c r="C33" s="6">
+        <f t="shared" ref="C33:C43" si="15">A33/B33</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" ref="D33:D34" si="16">2560/A33</f>
+        <v>2560</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1136.5</v>
       </c>
       <c r="F33" s="5">
         <f>E33/25</f>
-        <v>100.38</v>
+        <v>45.46</v>
       </c>
       <c r="G33" s="10">
         <f>E$33/E33</f>
@@ -1508,216 +1514,215 @@
       </c>
       <c r="I33" s="17">
         <f>F33/($A$2/A33)*1000</f>
-        <v>9.5729535737500808E-3</v>
-      </c>
-      <c r="J33" s="16"/>
+        <v>2.1676951059109318E-3</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" s="6">
-        <f>A34/B34</f>
-        <v>5</v>
-      </c>
-      <c r="D34" s="6">
-        <f>2560/A34</f>
-        <v>512</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1267.3</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="16"/>
+        <v>1280</v>
+      </c>
+      <c r="E34" s="5">
+        <v>615.6</v>
       </c>
       <c r="F34" s="5">
-        <f>E34/25</f>
-        <v>50.692</v>
+        <f t="shared" ref="F34:F43" si="17">E34/25</f>
+        <v>24.624000000000002</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" ref="G34:G54" si="15">E$33/E34</f>
-        <v>1.9801941134695811</v>
+        <f t="shared" ref="G34:G42" si="18">E$33/E34</f>
+        <v>1.8461663417803769</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ref="H34:H54" si="16">E$33/E34 / (A34/A$33)</f>
-        <v>0.79207764538783243</v>
+        <f t="shared" ref="H34:H42" si="19">E$33/E34 / (A34/A$33)</f>
+        <v>0.92308317089018843</v>
       </c>
       <c r="I34" s="17">
-        <f>F34/($A$2/A34)*1000</f>
-        <v>1.2085877728644627E-2</v>
+        <f t="shared" ref="I34:I42" si="20">F34/($A$2/A34)*1000</f>
+        <v>2.3483204702134091E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="D35" s="12">
+        <f>2560/A35</f>
+        <v>640</v>
+      </c>
+      <c r="E35" s="5">
+        <v>307.60000000000002</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="17"/>
+        <v>12.304</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="18"/>
+        <v>3.6947334200260076</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="19"/>
+        <v>0.92368335500650189</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="20"/>
+        <v>2.3467945959637576E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>8</v>
       </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
         <v>8</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="12">
         <v>320</v>
       </c>
-      <c r="E35" s="10">
-        <v>942.4</v>
-      </c>
-      <c r="F35" s="5">
-        <f>E35/25</f>
-        <v>37.695999999999998</v>
-      </c>
-      <c r="G35" s="10">
-        <f t="shared" ref="G35" si="17">E$33/E35</f>
-        <v>2.6628820033955858</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" ref="H35" si="18">E$33/E35 / (A35/A$33)</f>
-        <v>0.66572050084889645</v>
-      </c>
-      <c r="I35" s="17">
-        <f>F35/($A$2/A35)*1000</f>
-        <v>1.4379838928714205E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
-        <f t="shared" ref="C36:C54" si="19">A36/B36</f>
-        <v>10</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" ref="D36:D54" si="20">2560/A36</f>
-        <v>256</v>
-      </c>
-      <c r="E36" s="10">
-        <v>781.6</v>
+      <c r="E36" s="5">
+        <v>158.80000000000001</v>
       </c>
       <c r="F36" s="5">
-        <f>E36/25</f>
-        <v>31.263999999999999</v>
+        <f t="shared" si="17"/>
+        <v>6.3520000000000003</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="15"/>
-        <v>3.2107215967246674</v>
+        <f t="shared" si="18"/>
+        <v>7.1568010075566741</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="16"/>
-        <v>0.64214431934493343</v>
+        <f t="shared" si="19"/>
+        <v>0.89460012594458427</v>
       </c>
       <c r="I36" s="17">
-        <f t="shared" ref="I36:I54" si="21">F36/($A$2/A36)*1000</f>
-        <v>1.4907791419093569E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.4230883084463248E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
       </c>
       <c r="C37" s="6">
+        <f t="shared" ref="C37:C43" si="21">A37/B37</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" ref="D37:D43" si="22">2560/A37</f>
+        <v>256</v>
+      </c>
+      <c r="E37" s="5">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="17"/>
+        <v>5.1320000000000006</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="18"/>
+        <v>8.8581449727201864</v>
+      </c>
+      <c r="H37" s="5">
         <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="D37" s="5">
+        <v>0.88581449727201866</v>
+      </c>
+      <c r="I37" s="17">
         <f t="shared" si="20"/>
-        <v>128</v>
-      </c>
-      <c r="E37" s="10">
-        <v>456.5</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" ref="F37:F54" si="22">E37/25</f>
-        <v>18.260000000000002</v>
-      </c>
-      <c r="G37" s="10">
-        <f t="shared" si="15"/>
-        <v>5.4972617743702079</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="16"/>
-        <v>0.54972617743702079</v>
-      </c>
-      <c r="I37" s="17">
-        <f t="shared" si="21"/>
-        <v>1.7414039874145897E-2</v>
+        <v>2.4471208278783333E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="6">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="22"/>
+        <v>128</v>
+      </c>
+      <c r="E38" s="5">
+        <v>65.7</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="17"/>
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="18"/>
+        <v>17.298325722983257</v>
+      </c>
+      <c r="H38" s="5">
         <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="D38" s="5">
+        <v>0.86491628614916283</v>
+      </c>
+      <c r="I38" s="17">
         <f t="shared" si="20"/>
-        <v>64</v>
-      </c>
-      <c r="E38" s="10">
-        <v>215.6</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="22"/>
-        <v>8.6240000000000006</v>
-      </c>
-      <c r="G38" s="10">
-        <f t="shared" si="15"/>
-        <v>11.63961038961039</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="16"/>
-        <v>0.58198051948051943</v>
-      </c>
-      <c r="I38" s="17">
-        <f t="shared" si="21"/>
-        <v>1.644892441124142E-2</v>
+        <v>2.5062484550523226E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
-      <c r="B39" s="6">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="E39" s="5">
+        <v>43.8</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="17"/>
+        <v>1.7519999999999998</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="18"/>
+        <v>25.947488584474886</v>
+      </c>
+      <c r="H39" s="5">
         <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D39" s="5">
+        <v>0.64868721461187218</v>
+      </c>
+      <c r="I39" s="17">
         <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-      <c r="E39" s="10">
-        <v>156.6</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="22"/>
-        <v>6.2639999999999993</v>
-      </c>
-      <c r="G39" s="10">
-        <f t="shared" si="15"/>
-        <v>16.024904214559388</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="16"/>
-        <v>0.50077825670498088</v>
-      </c>
-      <c r="I39" s="17">
-        <f t="shared" si="21"/>
-        <v>1.9116152599631956E-2</v>
+        <v>3.3416646067364292E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1725,1010 +1730,1081 @@
         <v>80</v>
       </c>
       <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="22"/>
+        <v>32</v>
+      </c>
+      <c r="E40" s="5">
+        <v>24</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="17"/>
+        <v>0.96</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="18"/>
+        <v>47.354166666666664</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="19"/>
+        <v>0.59192708333333333</v>
+      </c>
+      <c r="I40" s="17">
+        <f t="shared" si="20"/>
+        <v>3.6620981991632106E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>160</v>
+      </c>
+      <c r="B41" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C41" s="6">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="E41" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="17"/>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="18"/>
+        <v>88.100775193798441</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="19"/>
+        <v>0.55062984496124023</v>
+      </c>
+      <c r="I41" s="17">
+        <f t="shared" si="20"/>
+        <v>3.9367555641004514E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>320</v>
+      </c>
+      <c r="B42" s="12">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7.49</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="17"/>
+        <v>0.29960000000000003</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="18"/>
+        <v>151.73564753004004</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="19"/>
+        <v>0.47417389853137515</v>
+      </c>
+      <c r="I42" s="17">
+        <f t="shared" si="20"/>
+        <v>4.5715192519554092E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>640</v>
+      </c>
+      <c r="B43" s="6">
+        <v>16</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="17"/>
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" ref="G43" si="23">E$33/E43</f>
+        <v>279.92610837438428</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" ref="H43" si="24">E$33/E43 / (A43/A$33)</f>
+        <v>0.43738454433497542</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" ref="I43" si="25">F43/($A$2/A43)*1000</f>
+        <v>4.9560395628675449E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6">
+        <f>2560/A47</f>
+        <v>1280</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2509.5</v>
+      </c>
+      <c r="F47" s="5">
+        <f>E47/25</f>
+        <v>100.38</v>
+      </c>
+      <c r="G47" s="10">
+        <f>E$47/E47</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <f>E$47/E47 / (A47/A$47)</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="17">
+        <f>F47/($A$2/A47)*1000</f>
+        <v>9.5729535737500808E-3</v>
+      </c>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6">
+        <f>A48/B48</f>
+        <v>5</v>
+      </c>
+      <c r="D48" s="6">
+        <f>2560/A48</f>
+        <v>512</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1267.3</v>
+      </c>
+      <c r="F48" s="5">
+        <f>E48/25</f>
+        <v>50.692</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" ref="G48:G68" si="26">E$47/E48</f>
+        <v>1.9801941134695811</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" ref="H48:H68" si="27">E$47/E48 / (A48/A$47)</f>
+        <v>0.79207764538783243</v>
+      </c>
+      <c r="I48" s="17">
+        <f>F48/($A$2/A48)*1000</f>
+        <v>1.2085877728644627E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6">
+        <v>8</v>
+      </c>
+      <c r="D49" s="6">
+        <v>320</v>
+      </c>
+      <c r="E49" s="10">
+        <v>942.4</v>
+      </c>
+      <c r="F49" s="5">
+        <f>E49/25</f>
+        <v>37.695999999999998</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" ref="G49" si="28">E$47/E49</f>
+        <v>2.6628820033955858</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" ref="H49" si="29">E$47/E49 / (A49/A$47)</f>
+        <v>0.66572050084889645</v>
+      </c>
+      <c r="I49" s="17">
+        <f>F49/($A$2/A49)*1000</f>
+        <v>1.4379838928714205E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>10</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" ref="C50:C68" si="30">A50/B50</f>
+        <v>10</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" ref="D50:D68" si="31">2560/A50</f>
+        <v>256</v>
+      </c>
+      <c r="E50" s="10">
+        <v>781.6</v>
+      </c>
+      <c r="F50" s="5">
+        <f>E50/25</f>
+        <v>31.263999999999999</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="26"/>
+        <v>3.2107215967246674</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="27"/>
+        <v>0.64214431934493343</v>
+      </c>
+      <c r="I50" s="17">
+        <f t="shared" ref="I50:I68" si="32">F50/($A$2/A50)*1000</f>
+        <v>1.4907791419093569E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <v>20</v>
       </c>
-      <c r="D40" s="5">
-        <f t="shared" si="20"/>
-        <v>32</v>
-      </c>
-      <c r="E40" s="10">
-        <v>96.5</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="22"/>
-        <v>3.86</v>
-      </c>
-      <c r="G40" s="10">
-        <f t="shared" si="15"/>
-        <v>26.005181347150259</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="16"/>
-        <v>0.65012953367875648</v>
-      </c>
-      <c r="I40" s="17">
-        <f t="shared" si="21"/>
-        <v>1.472468650913541E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>100</v>
-      </c>
-      <c r="B41" s="6">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6">
-        <f t="shared" si="19"/>
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
-      <c r="D41" s="5">
-        <f t="shared" si="20"/>
-        <v>25.6</v>
-      </c>
-      <c r="E41" s="10">
-        <v>75.3</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="22"/>
-        <v>3.012</v>
-      </c>
-      <c r="G41" s="10">
-        <f t="shared" si="15"/>
-        <v>33.326693227091631</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="16"/>
-        <v>0.66653386454183261</v>
-      </c>
-      <c r="I41" s="17">
-        <f t="shared" si="21"/>
-        <v>1.4362291374843216E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>120</v>
-      </c>
-      <c r="B42" s="6">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="20"/>
-        <v>21.333333333333332</v>
-      </c>
-      <c r="E42" s="10">
-        <v>65</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="22"/>
-        <v>2.6</v>
-      </c>
-      <c r="G42" s="10">
-        <f t="shared" si="15"/>
-        <v>38.607692307692311</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="16"/>
-        <v>0.64346153846153853</v>
-      </c>
-      <c r="I42" s="17">
-        <f t="shared" si="21"/>
-        <v>1.4877273934100543E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>128</v>
-      </c>
-      <c r="B43" s="12">
-        <v>4</v>
-      </c>
-      <c r="C43" s="6">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="E43" s="10">
-        <v>67.7</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="22"/>
-        <v>2.7080000000000002</v>
-      </c>
-      <c r="G43" s="10">
-        <f t="shared" si="15"/>
-        <v>37.067946824224521</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="16"/>
-        <v>0.57918666912850814</v>
-      </c>
-      <c r="I43" s="17">
-        <f t="shared" si="21"/>
-        <v>1.6528269872223292E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
-        <v>140</v>
-      </c>
-      <c r="B44" s="12">
-        <v>7</v>
-      </c>
-      <c r="C44" s="6">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" si="20"/>
-        <v>18.285714285714285</v>
-      </c>
-      <c r="E44" s="10">
-        <v>56</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="22"/>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G44" s="10">
-        <f t="shared" si="15"/>
-        <v>44.8125</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="16"/>
-        <v>0.64017857142857137</v>
-      </c>
-      <c r="I44" s="17">
-        <f t="shared" si="21"/>
-        <v>1.4953567646583111E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
-        <v>160</v>
-      </c>
-      <c r="B45" s="12">
-        <v>5</v>
-      </c>
-      <c r="C45" s="6">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="E45" s="10">
-        <v>53.3</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="22"/>
-        <v>2.1319999999999997</v>
-      </c>
-      <c r="G45" s="10">
-        <f t="shared" si="15"/>
-        <v>47.082551594746718</v>
-      </c>
-      <c r="H45" s="5">
-        <f t="shared" si="16"/>
-        <v>0.588531894934334</v>
-      </c>
-      <c r="I45" s="17">
-        <f t="shared" si="21"/>
-        <v>1.6265819501283259E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
-        <v>192</v>
-      </c>
-      <c r="B46" s="12">
-        <v>6</v>
-      </c>
-      <c r="C46" s="6">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="20"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="E46" s="10">
-        <v>42.5</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="22"/>
-        <v>1.7</v>
-      </c>
-      <c r="G46" s="10">
-        <f t="shared" si="15"/>
-        <v>59.047058823529412</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="16"/>
-        <v>0.61507352941176474</v>
-      </c>
-      <c r="I46" s="17">
-        <f t="shared" si="21"/>
-        <v>1.5563917346443643E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
-        <v>200</v>
-      </c>
-      <c r="B47" s="12">
-        <v>10</v>
-      </c>
-      <c r="C47" s="6">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="20"/>
-        <v>12.8</v>
-      </c>
-      <c r="E47" s="10">
-        <v>35.1</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="22"/>
-        <v>1.4040000000000001</v>
-      </c>
-      <c r="G47" s="10">
-        <f t="shared" si="15"/>
-        <v>71.495726495726487</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="16"/>
-        <v>0.71495726495726486</v>
-      </c>
-      <c r="I47" s="17">
-        <f t="shared" si="21"/>
-        <v>1.3389546540690491E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
-        <v>224</v>
-      </c>
-      <c r="B48" s="12">
-        <v>7</v>
-      </c>
-      <c r="C48" s="6">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" si="20"/>
-        <v>11.428571428571429</v>
-      </c>
-      <c r="E48" s="10">
-        <v>34.1</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="22"/>
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="G48" s="10">
-        <f t="shared" si="15"/>
-        <v>73.592375366568916</v>
-      </c>
-      <c r="H48" s="5">
-        <f t="shared" si="16"/>
-        <v>0.65707478005865105</v>
-      </c>
-      <c r="I48" s="17">
-        <f t="shared" si="21"/>
-        <v>1.4569047335670974E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
-        <v>240</v>
-      </c>
-      <c r="B49" s="12">
-        <v>10</v>
-      </c>
-      <c r="C49" s="6">
-        <f t="shared" si="19"/>
-        <v>24</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="20"/>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="E49" s="10">
-        <v>28</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="22"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G49" s="10">
-        <f t="shared" si="15"/>
-        <v>89.625</v>
-      </c>
-      <c r="H49" s="5">
-        <f t="shared" si="16"/>
-        <v>0.74687499999999996</v>
-      </c>
-      <c r="I49" s="17">
-        <f t="shared" si="21"/>
-        <v>1.2817343697071238E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
-        <v>256</v>
-      </c>
-      <c r="B50" s="6">
-        <v>8</v>
-      </c>
-      <c r="C50" s="6">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="E50" s="10">
-        <v>26.1</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="22"/>
-        <v>1.044</v>
-      </c>
-      <c r="G50" s="10">
-        <f t="shared" si="15"/>
-        <v>96.149425287356323</v>
-      </c>
-      <c r="H50" s="5">
-        <f t="shared" si="16"/>
-        <v>0.75116738505747127</v>
-      </c>
-      <c r="I50" s="17">
-        <f t="shared" si="21"/>
-        <v>1.2744101733087973E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
-        <v>280</v>
-      </c>
-      <c r="B51" s="6">
-        <v>10</v>
-      </c>
-      <c r="C51" s="6">
-        <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
       <c r="D51" s="5">
-        <f t="shared" si="20"/>
-        <v>9.1428571428571423</v>
-      </c>
-      <c r="E51" s="10">
-        <v>23.1</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="22"/>
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="G51" s="10">
-        <f t="shared" si="15"/>
-        <v>108.63636363636363</v>
-      </c>
-      <c r="H51" s="5">
-        <f t="shared" si="16"/>
-        <v>0.77597402597402587</v>
-      </c>
-      <c r="I51" s="17">
-        <f t="shared" si="21"/>
-        <v>1.2336693308431065E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
-        <v>300</v>
-      </c>
-      <c r="B52" s="6">
-        <v>10</v>
-      </c>
-      <c r="C52" s="6">
-        <f t="shared" si="19"/>
-        <v>30</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="20"/>
-        <v>8.5333333333333332</v>
-      </c>
-      <c r="E52" s="10">
-        <v>21</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="22"/>
-        <v>0.84</v>
-      </c>
-      <c r="G52" s="10">
-        <f t="shared" si="15"/>
-        <v>119.5</v>
-      </c>
-      <c r="H52" s="5">
-        <f t="shared" si="16"/>
-        <v>0.79666666666666663</v>
-      </c>
-      <c r="I52" s="17">
-        <f t="shared" si="21"/>
-        <v>1.2016259716004283E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
-        <v>320</v>
-      </c>
-      <c r="B53" s="6">
-        <v>10</v>
-      </c>
-      <c r="C53" s="6">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="E53" s="10">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="22"/>
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="G53" s="10">
-        <f t="shared" si="15"/>
-        <v>136.3858695652174</v>
-      </c>
-      <c r="H53" s="5">
-        <f t="shared" si="16"/>
-        <v>0.85241168478260876</v>
-      </c>
-      <c r="I53" s="17">
-        <f t="shared" si="21"/>
-        <v>1.1230434477433845E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
-        <v>384</v>
-      </c>
-      <c r="B54" s="6">
-        <v>12</v>
-      </c>
-      <c r="C54" s="6">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="20"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="E54" s="10">
-        <v>15.8</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" si="22"/>
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="G54" s="10">
-        <f t="shared" si="15"/>
-        <v>158.82911392405063</v>
-      </c>
-      <c r="H54" s="5">
-        <f t="shared" si="16"/>
-        <v>0.82723496835443033</v>
-      </c>
-      <c r="I54" s="17">
-        <f t="shared" si="21"/>
-        <v>1.1572230309355745E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F56" s="11"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6">
-        <f t="shared" ref="C60:C70" si="23">A60/B60</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="12">
-        <f t="shared" ref="D60:D61" si="24">2560/A60</f>
-        <v>2560</v>
-      </c>
-      <c r="E60" s="5">
-        <v>2452.4</v>
-      </c>
-      <c r="F60" s="5">
-        <f>E60/10</f>
-        <v>245.24</v>
-      </c>
-      <c r="G60" s="10">
-        <f t="shared" ref="G60:G70" si="25">E$60/E60</f>
-        <v>1</v>
-      </c>
-      <c r="H60" s="5">
-        <f xml:space="preserve"> (E$60/E60) / (A60/A$60)</f>
-        <v>1</v>
-      </c>
-      <c r="I60" s="17">
-        <f>F60/($A$2/A60)*1000</f>
-        <v>1.1693918780765441E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="D61" s="12">
-        <f t="shared" si="24"/>
-        <v>1280</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1865</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" ref="F61:F70" si="26">E61/10</f>
-        <v>186.5</v>
-      </c>
-      <c r="G61" s="10">
-        <f t="shared" si="25"/>
-        <v>1.3149597855227884</v>
-      </c>
-      <c r="H61" s="5">
-        <f>E$61/E61/(A61/A$61)</f>
-        <v>1</v>
-      </c>
-      <c r="I61" s="17">
-        <f t="shared" ref="I61:I70" si="27">F61/($A$2/A61)*1000</f>
-        <v>1.7785971722498406E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>4</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="D62" s="12">
-        <f>2560/A62</f>
-        <v>640</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1036.5999999999999</v>
-      </c>
-      <c r="F62" s="5">
-        <f t="shared" si="26"/>
-        <v>103.66</v>
-      </c>
-      <c r="G62" s="10">
-        <f t="shared" si="25"/>
-        <v>2.3658113061933248</v>
-      </c>
-      <c r="H62" s="5">
-        <f t="shared" ref="H62:H70" si="28">E$61/E62/(A62/A$61)</f>
-        <v>0.89957553540420609</v>
-      </c>
-      <c r="I62" s="17">
-        <f t="shared" si="27"/>
-        <v>1.9771515589857208E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="6">
-        <v>8</v>
-      </c>
-      <c r="D63" s="12">
-        <v>320</v>
-      </c>
-      <c r="E63" s="5">
-        <v>558.4</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" si="26"/>
-        <v>55.839999999999996</v>
-      </c>
-      <c r="G63" s="10">
-        <f t="shared" si="25"/>
-        <v>4.3918338108882526</v>
-      </c>
-      <c r="H63" s="5">
-        <f t="shared" ref="H63" si="29">E$61/E63/(A63/A$61)</f>
-        <v>0.83497492836676224</v>
-      </c>
-      <c r="I63" s="17">
-        <f t="shared" ref="I63" si="30">F63/($A$2/A63)*1000</f>
-        <v>2.1301204525132674E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
-        <v>10</v>
-      </c>
-      <c r="B64" s="6">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6">
-        <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="D64" s="12">
-        <f t="shared" ref="D64:D70" si="31">2560/A64</f>
-        <v>256</v>
-      </c>
-      <c r="E64" s="5">
-        <v>470.3</v>
-      </c>
-      <c r="F64" s="5">
-        <f t="shared" si="26"/>
-        <v>47.03</v>
-      </c>
-      <c r="G64" s="10">
-        <f t="shared" si="25"/>
-        <v>5.2145439081437379</v>
-      </c>
-      <c r="H64" s="5">
-        <f t="shared" si="28"/>
-        <v>0.79311078035296612</v>
-      </c>
-      <c r="I64" s="17">
-        <f t="shared" si="27"/>
-        <v>2.2425583112844504E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>20</v>
-      </c>
-      <c r="B65" s="6">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6">
-        <f t="shared" si="23"/>
-        <v>20</v>
-      </c>
-      <c r="D65" s="12">
         <f t="shared" si="31"/>
         <v>128</v>
       </c>
-      <c r="E65" s="5">
-        <v>249.8</v>
-      </c>
-      <c r="F65" s="5">
+      <c r="E51" s="10">
+        <v>456.5</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" ref="F51:F68" si="33">E51/25</f>
+        <v>18.260000000000002</v>
+      </c>
+      <c r="G51" s="10">
         <f t="shared" si="26"/>
-        <v>24.98</v>
-      </c>
-      <c r="G65" s="10">
-        <f t="shared" si="25"/>
-        <v>9.8174539631705358</v>
-      </c>
-      <c r="H65" s="5">
-        <f t="shared" si="28"/>
-        <v>0.74659727782225782</v>
-      </c>
-      <c r="I65" s="17">
+        <v>5.4972617743702079</v>
+      </c>
+      <c r="H51" s="5">
         <f t="shared" si="27"/>
-        <v>2.3822711722681512E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+        <v>0.54972617743702079</v>
+      </c>
+      <c r="I51" s="17">
+        <f t="shared" si="32"/>
+        <v>1.7414039874145897E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>40</v>
       </c>
-      <c r="B66" s="6">
-        <v>1</v>
-      </c>
-      <c r="C66" s="6">
-        <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="D66" s="12">
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="D52" s="5">
         <f t="shared" si="31"/>
         <v>64</v>
       </c>
-      <c r="E66" s="5">
-        <v>152.6</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="E52" s="10">
+        <v>215.6</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="33"/>
+        <v>8.6240000000000006</v>
+      </c>
+      <c r="G52" s="10">
         <f t="shared" si="26"/>
-        <v>15.26</v>
-      </c>
-      <c r="G66" s="10">
-        <f t="shared" si="25"/>
-        <v>16.070773263433814</v>
-      </c>
-      <c r="H66" s="5">
-        <f t="shared" si="28"/>
-        <v>0.61107470511140238</v>
-      </c>
-      <c r="I66" s="17">
+        <v>11.63961038961039</v>
+      </c>
+      <c r="H52" s="5">
         <f t="shared" si="27"/>
-        <v>2.9106051312099271E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+        <v>0.58198051948051943</v>
+      </c>
+      <c r="I52" s="17">
+        <f t="shared" si="32"/>
+        <v>1.644892441124142E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>64</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="31"/>
+        <v>40</v>
+      </c>
+      <c r="E53" s="10">
+        <v>156.6</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="33"/>
+        <v>6.2639999999999993</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="26"/>
+        <v>16.024904214559388</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="27"/>
+        <v>0.50077825670498088</v>
+      </c>
+      <c r="I53" s="17">
+        <f t="shared" si="32"/>
+        <v>1.9116152599631956E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <v>80</v>
       </c>
-      <c r="B67" s="6">
-        <v>2</v>
-      </c>
-      <c r="C67" s="6">
-        <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="D67" s="12">
+      <c r="B54" s="6">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="D54" s="5">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="E67" s="5">
-        <v>77.3</v>
+      <c r="E54" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="33"/>
+        <v>3.86</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="26"/>
+        <v>26.005181347150259</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="27"/>
+        <v>0.65012953367875648</v>
+      </c>
+      <c r="I54" s="17">
+        <f t="shared" si="32"/>
+        <v>1.472468650913541E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>100</v>
+      </c>
+      <c r="B55" s="6">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="D55" s="18">
+        <f t="shared" si="31"/>
+        <v>25.6</v>
+      </c>
+      <c r="E55" s="10">
+        <v>75.3</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="33"/>
+        <v>3.012</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="26"/>
+        <v>33.326693227091631</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="27"/>
+        <v>0.66653386454183261</v>
+      </c>
+      <c r="I55" s="17">
+        <f t="shared" si="32"/>
+        <v>1.4362291374843216E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>120</v>
+      </c>
+      <c r="B56" s="6">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="D56" s="18">
+        <f t="shared" si="31"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="E56" s="10">
+        <v>65</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="33"/>
+        <v>2.6</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="26"/>
+        <v>38.607692307692311</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="27"/>
+        <v>0.64346153846153853</v>
+      </c>
+      <c r="I56" s="17">
+        <f t="shared" si="32"/>
+        <v>1.4877273934100543E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>128</v>
+      </c>
+      <c r="B57" s="12">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+      <c r="E57" s="10">
+        <v>67.7</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="33"/>
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="26"/>
+        <v>37.067946824224521</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="27"/>
+        <v>0.57918666912850814</v>
+      </c>
+      <c r="I57" s="17">
+        <f t="shared" si="32"/>
+        <v>1.6528269872223292E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>140</v>
+      </c>
+      <c r="B58" s="12">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="D58" s="18">
+        <f t="shared" si="31"/>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="E58" s="10">
+        <v>56</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="33"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="26"/>
+        <v>44.8125</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="27"/>
+        <v>0.64017857142857137</v>
+      </c>
+      <c r="I58" s="17">
+        <f t="shared" si="32"/>
+        <v>1.4953567646583111E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>160</v>
+      </c>
+      <c r="B59" s="12">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="31"/>
+        <v>16</v>
+      </c>
+      <c r="E59" s="10">
+        <v>53.3</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="33"/>
+        <v>2.1319999999999997</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="26"/>
+        <v>47.082551594746718</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="27"/>
+        <v>0.588531894934334</v>
+      </c>
+      <c r="I59" s="17">
+        <f t="shared" si="32"/>
+        <v>1.6265819501283259E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>192</v>
+      </c>
+      <c r="B60" s="12">
+        <v>6</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D60" s="18">
+        <f t="shared" si="31"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="E60" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="33"/>
+        <v>1.7</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="26"/>
+        <v>59.047058823529412</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="27"/>
+        <v>0.61507352941176474</v>
+      </c>
+      <c r="I60" s="17">
+        <f t="shared" si="32"/>
+        <v>1.5563917346443643E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>200</v>
+      </c>
+      <c r="B61" s="12">
+        <v>10</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="D61" s="18">
+        <f t="shared" si="31"/>
+        <v>12.8</v>
+      </c>
+      <c r="E61" s="10">
+        <v>35.1</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="33"/>
+        <v>1.4040000000000001</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="26"/>
+        <v>71.495726495726487</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="27"/>
+        <v>0.71495726495726486</v>
+      </c>
+      <c r="I61" s="17">
+        <f t="shared" si="32"/>
+        <v>1.3389546540690491E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
+        <v>224</v>
+      </c>
+      <c r="B62" s="12">
+        <v>7</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D62" s="18">
+        <f t="shared" si="31"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="E62" s="10">
+        <v>34.1</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="33"/>
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="26"/>
+        <v>73.592375366568916</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="27"/>
+        <v>0.65707478005865105</v>
+      </c>
+      <c r="I62" s="17">
+        <f t="shared" si="32"/>
+        <v>1.4569047335670974E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
+        <v>240</v>
+      </c>
+      <c r="B63" s="12">
+        <v>10</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="D63" s="18">
+        <f t="shared" si="31"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="E63" s="10">
+        <v>28</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="33"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="26"/>
+        <v>89.625</v>
+      </c>
+      <c r="H63" s="5">
+        <f t="shared" si="27"/>
+        <v>0.74687499999999996</v>
+      </c>
+      <c r="I63" s="17">
+        <f t="shared" si="32"/>
+        <v>1.2817343697071238E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
+        <v>256</v>
+      </c>
+      <c r="B64" s="6">
+        <v>8</v>
+      </c>
+      <c r="C64" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="E64" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="33"/>
+        <v>1.044</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="26"/>
+        <v>96.149425287356323</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="27"/>
+        <v>0.75116738505747127</v>
+      </c>
+      <c r="I64" s="17">
+        <f t="shared" si="32"/>
+        <v>1.2744101733087973E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
+        <v>280</v>
+      </c>
+      <c r="B65" s="6">
+        <v>10</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" si="30"/>
+        <v>28</v>
+      </c>
+      <c r="D65" s="18">
+        <f t="shared" si="31"/>
+        <v>9.1428571428571423</v>
+      </c>
+      <c r="E65" s="10">
+        <v>23.1</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="33"/>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="26"/>
+        <v>108.63636363636363</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="27"/>
+        <v>0.77597402597402587</v>
+      </c>
+      <c r="I65" s="17">
+        <f t="shared" si="32"/>
+        <v>1.2336693308431065E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
+        <v>300</v>
+      </c>
+      <c r="B66" s="6">
+        <v>10</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="D66" s="18">
+        <f t="shared" si="31"/>
+        <v>8.5333333333333332</v>
+      </c>
+      <c r="E66" s="10">
+        <v>21</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="33"/>
+        <v>0.84</v>
+      </c>
+      <c r="G66" s="10">
+        <f t="shared" si="26"/>
+        <v>119.5</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="27"/>
+        <v>0.79666666666666663</v>
+      </c>
+      <c r="I66" s="17">
+        <f t="shared" si="32"/>
+        <v>1.2016259716004283E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
+        <v>320</v>
+      </c>
+      <c r="B67" s="6">
+        <v>10</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="E67" s="10">
+        <v>18.399999999999999</v>
       </c>
       <c r="F67" s="5">
+        <f t="shared" si="33"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G67" s="10">
         <f t="shared" si="26"/>
-        <v>7.7299999999999995</v>
-      </c>
-      <c r="G67" s="10">
-        <f t="shared" si="25"/>
-        <v>31.725743855109965</v>
+        <v>136.3858695652174</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="28"/>
-        <v>0.60316946959896511</v>
+        <f t="shared" si="27"/>
+        <v>0.85241168478260876</v>
       </c>
       <c r="I67" s="17">
-        <f t="shared" si="27"/>
-        <v>2.9487519874512102E-2</v>
+        <f t="shared" si="32"/>
+        <v>1.1230434477433845E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
-        <v>160</v>
-      </c>
-      <c r="B68" s="12">
+        <v>384</v>
+      </c>
+      <c r="B68" s="6">
+        <v>12</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="D68" s="18">
+        <f t="shared" si="31"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E68" s="10">
+        <v>15.8</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="33"/>
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="26"/>
+        <v>158.82911392405063</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="27"/>
+        <v>0.82723496835443033</v>
+      </c>
+      <c r="I68" s="17">
+        <f t="shared" si="32"/>
+        <v>1.1572230309355745E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F70" s="11"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="6">
-        <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="D68" s="12">
-        <f t="shared" si="31"/>
-        <v>16</v>
-      </c>
-      <c r="E68" s="5">
-        <v>43</v>
-      </c>
-      <c r="F68" s="5">
-        <f t="shared" si="26"/>
-        <v>4.3</v>
-      </c>
-      <c r="G68" s="10">
-        <f t="shared" si="25"/>
-        <v>57.032558139534885</v>
-      </c>
-      <c r="H68" s="5">
-        <f t="shared" si="28"/>
-        <v>0.54215116279069764</v>
-      </c>
-      <c r="I68" s="17">
-        <f t="shared" si="27"/>
-        <v>3.2806296367503762E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="12">
-        <v>320</v>
-      </c>
-      <c r="B69" s="12">
-        <v>8</v>
-      </c>
-      <c r="C69" s="6">
-        <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="D69" s="12">
-        <f t="shared" si="31"/>
-        <v>8</v>
-      </c>
-      <c r="E69" s="5">
-        <v>21.5</v>
-      </c>
-      <c r="F69" s="5">
-        <f t="shared" si="26"/>
-        <v>2.15</v>
-      </c>
-      <c r="G69" s="10">
-        <f t="shared" si="25"/>
-        <v>114.06511627906977</v>
-      </c>
-      <c r="H69" s="5">
-        <f t="shared" si="28"/>
-        <v>0.54215116279069764</v>
-      </c>
-      <c r="I69" s="17">
-        <f t="shared" si="27"/>
-        <v>3.2806296367503762E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
-        <v>640</v>
-      </c>
-      <c r="B70" s="6">
-        <v>16</v>
-      </c>
-      <c r="C70" s="6">
-        <f t="shared" si="23"/>
-        <v>40</v>
-      </c>
-      <c r="D70" s="12">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="E70" s="5">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" si="26"/>
-        <v>0.9880000000000001</v>
-      </c>
-      <c r="G70" s="10">
-        <f t="shared" si="25"/>
-        <v>248.21862348178138</v>
-      </c>
-      <c r="H70" s="5">
-        <f t="shared" si="28"/>
-        <v>0.58989119433198378</v>
-      </c>
-      <c r="I70" s="17">
-        <f t="shared" si="27"/>
-        <v>3.0151275173110441E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>11</v>
+      <c r="G73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
-        <v>16</v>
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" ref="C74:C84" si="34">A74/B74</f>
+        <v>1</v>
+      </c>
+      <c r="D74" s="12">
+        <f t="shared" ref="D74:D75" si="35">2560/A74</f>
+        <v>2560</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2452.4</v>
+      </c>
+      <c r="F74" s="5">
+        <f>E74/10</f>
+        <v>245.24</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" ref="G74:G84" si="36">E$74/E74</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <f xml:space="preserve"> (E$74/E74) / (A74/A$74)</f>
+        <v>1</v>
+      </c>
+      <c r="I74" s="17">
+        <f>F74/($A$2/A74)*1000</f>
+        <v>1.1693918780765441E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="3">
         <v>2</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>12</v>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="12">
+        <f t="shared" si="35"/>
+        <v>1280</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1865</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" ref="F75:F84" si="37">E75/10</f>
+        <v>186.5</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="36"/>
+        <v>1.3149597855227884</v>
+      </c>
+      <c r="H75" s="5">
+        <f>E$75/E75/(A75/A$75)</f>
+        <v>1</v>
+      </c>
+      <c r="I75" s="17">
+        <f t="shared" ref="I75:I84" si="38">F75/($A$2/A75)*1000</f>
+        <v>1.7785971722498406E-2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2739,404 +2815,766 @@
         <v>1</v>
       </c>
       <c r="C76" s="6">
-        <f t="shared" ref="C76:C80" si="32">A76/B76</f>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="D76" s="6">
-        <f>640/A76</f>
-        <v>160</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1657.8</v>
+      <c r="D76" s="12">
+        <f>2560/A76</f>
+        <v>640</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1036.5999999999999</v>
       </c>
       <c r="F76" s="5">
-        <f>E76/25</f>
-        <v>66.311999999999998</v>
+        <f t="shared" si="37"/>
+        <v>103.66</v>
       </c>
       <c r="G76" s="10">
-        <f>E$76/E76</f>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>2.3658113061933248</v>
       </c>
       <c r="H76" s="5">
-        <f>E$76/E76/(A76/A$76)</f>
-        <v>1</v>
+        <f t="shared" ref="H76:H84" si="39">E$75/E76/(A76/A$75)</f>
+        <v>0.89957553540420609</v>
       </c>
       <c r="I76" s="17">
-        <f>F76/($A$2/A76)*1000</f>
-        <v>1.2647971655359937E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.9771515589857208E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
-        <v>10</v>
-      </c>
-      <c r="B77" s="6">
+      <c r="A77" s="3">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" s="6">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-      <c r="D77" s="5">
-        <f t="shared" ref="D77:D80" si="33">640/A77</f>
-        <v>64</v>
-      </c>
-      <c r="E77" s="6">
-        <v>847.8</v>
+        <v>8</v>
+      </c>
+      <c r="D77" s="12">
+        <v>320</v>
+      </c>
+      <c r="E77" s="5">
+        <v>558.4</v>
       </c>
       <c r="F77" s="5">
-        <f>E77/25</f>
-        <v>33.911999999999999</v>
+        <f t="shared" si="37"/>
+        <v>55.839999999999996</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" ref="G77:G80" si="34">E$76/E77</f>
-        <v>1.9554140127388535</v>
+        <f t="shared" si="36"/>
+        <v>4.3918338108882526</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" ref="H77:H80" si="35">E$76/E77/(A77/A$76)</f>
-        <v>0.78216560509554145</v>
+        <f t="shared" ref="H77" si="40">E$75/E77/(A77/A$75)</f>
+        <v>0.83497492836676224</v>
       </c>
       <c r="I77" s="17">
-        <f t="shared" ref="I77:I80" si="36">F77/($A$2/A77)*1000</f>
-        <v>1.617045236068005E-2</v>
+        <f t="shared" ref="I77" si="41">F77/($A$2/A77)*1000</f>
+        <v>2.1301204525132674E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B78" s="6">
         <v>1</v>
       </c>
       <c r="C78" s="6">
-        <f t="shared" si="32"/>
-        <v>20</v>
-      </c>
-      <c r="D78" s="5">
-        <f t="shared" si="33"/>
-        <v>32</v>
-      </c>
-      <c r="E78" s="6">
-        <v>447.6</v>
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="D78" s="12">
+        <f t="shared" ref="D78:D84" si="42">2560/A78</f>
+        <v>256</v>
+      </c>
+      <c r="E78" s="5">
+        <v>470.3</v>
       </c>
       <c r="F78" s="5">
-        <f>E78/25</f>
-        <v>17.904</v>
+        <f t="shared" si="37"/>
+        <v>47.03</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="34"/>
-        <v>3.703753351206434</v>
+        <f t="shared" si="36"/>
+        <v>5.2145439081437379</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="35"/>
-        <v>0.74075067024128682</v>
+        <f t="shared" si="39"/>
+        <v>0.79311078035296612</v>
       </c>
       <c r="I78" s="17">
-        <f t="shared" si="36"/>
-        <v>1.707453285359847E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.2425583112844504E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
       </c>
       <c r="C79" s="6">
-        <f t="shared" si="32"/>
-        <v>40</v>
-      </c>
-      <c r="D79" s="5">
-        <f t="shared" si="33"/>
-        <v>16</v>
-      </c>
-      <c r="E79" s="6">
-        <v>263.8</v>
+        <f t="shared" si="34"/>
+        <v>20</v>
+      </c>
+      <c r="D79" s="12">
+        <f t="shared" si="42"/>
+        <v>128</v>
+      </c>
+      <c r="E79" s="5">
+        <v>249.8</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" ref="F79:F80" si="37">E79/25</f>
-        <v>10.552</v>
+        <f t="shared" si="37"/>
+        <v>24.98</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="34"/>
-        <v>6.2843062926459439</v>
+        <f t="shared" si="36"/>
+        <v>9.8174539631705358</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" si="35"/>
-        <v>0.62843062926459436</v>
+        <f t="shared" si="39"/>
+        <v>0.74659727782225782</v>
       </c>
       <c r="I79" s="17">
-        <f t="shared" si="36"/>
-        <v>2.0126281352901145E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.3822711722681512E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
       </c>
       <c r="C80" s="6">
-        <f t="shared" si="32"/>
-        <v>60</v>
-      </c>
-      <c r="D80" s="5">
-        <f t="shared" si="33"/>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="E80" s="6">
-        <v>228.6</v>
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="D80" s="12">
+        <f t="shared" si="42"/>
+        <v>64</v>
+      </c>
+      <c r="E80" s="5">
+        <v>152.6</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="37"/>
+        <v>15.26</v>
+      </c>
+      <c r="G80" s="10">
+        <f t="shared" si="36"/>
+        <v>16.070773263433814</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="39"/>
+        <v>0.61107470511140238</v>
+      </c>
+      <c r="I80" s="17">
+        <f t="shared" si="38"/>
+        <v>2.9106051312099271E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="D81" s="12">
+        <f t="shared" si="42"/>
+        <v>32</v>
+      </c>
+      <c r="E81" s="5">
+        <v>77.3</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="37"/>
+        <v>7.7299999999999995</v>
+      </c>
+      <c r="G81" s="10">
+        <f t="shared" si="36"/>
+        <v>31.725743855109965</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="39"/>
+        <v>0.60316946959896511</v>
+      </c>
+      <c r="I81" s="17">
+        <f t="shared" si="38"/>
+        <v>2.9487519874512102E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>160</v>
+      </c>
+      <c r="B82" s="12">
+        <v>4</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="D82" s="12">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="E82" s="5">
+        <v>43</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="37"/>
+        <v>4.3</v>
+      </c>
+      <c r="G82" s="10">
+        <f t="shared" si="36"/>
+        <v>57.032558139534885</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="39"/>
+        <v>0.54215116279069764</v>
+      </c>
+      <c r="I82" s="17">
+        <f t="shared" si="38"/>
+        <v>3.2806296367503762E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>320</v>
+      </c>
+      <c r="B83" s="12">
+        <v>8</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="D83" s="12">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="E83" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="37"/>
+        <v>2.15</v>
+      </c>
+      <c r="G83" s="10">
+        <f t="shared" si="36"/>
+        <v>114.06511627906977</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" si="39"/>
+        <v>0.54215116279069764</v>
+      </c>
+      <c r="I83" s="17">
+        <f t="shared" si="38"/>
+        <v>3.2806296367503762E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>640</v>
+      </c>
+      <c r="B84" s="6">
+        <v>16</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="D84" s="12">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="E84" s="5">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="37"/>
+        <v>0.9880000000000001</v>
+      </c>
+      <c r="G84" s="10">
+        <f t="shared" si="36"/>
+        <v>248.21862348178138</v>
+      </c>
+      <c r="H84" s="5">
+        <f t="shared" si="39"/>
+        <v>0.58989119433198378</v>
+      </c>
+      <c r="I84" s="17">
+        <f t="shared" si="38"/>
+        <v>3.0151275173110441E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="D85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="D86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6">
+        <f t="shared" ref="C90:C94" si="43">A90/B90</f>
+        <v>4</v>
+      </c>
+      <c r="D90" s="6">
+        <f>640/A90</f>
+        <v>160</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1657.8</v>
+      </c>
+      <c r="F90" s="5">
+        <f>E90/25</f>
+        <v>66.311999999999998</v>
+      </c>
+      <c r="G90" s="10">
+        <f>E$90/E90</f>
+        <v>1</v>
+      </c>
+      <c r="H90" s="5">
+        <f>E$90/E90/(A90/A$90)</f>
+        <v>1</v>
+      </c>
+      <c r="I90" s="17">
+        <f>F90/($A$2/A90)*1000</f>
+        <v>1.2647971655359937E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>10</v>
+      </c>
+      <c r="B91" s="6">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" ref="D91:D94" si="44">640/A91</f>
+        <v>64</v>
+      </c>
+      <c r="E91" s="6">
+        <v>847.8</v>
+      </c>
+      <c r="F91" s="5">
+        <f>E91/25</f>
+        <v>33.911999999999999</v>
+      </c>
+      <c r="G91" s="10">
+        <f t="shared" ref="G91:G94" si="45">E$90/E91</f>
+        <v>1.9554140127388535</v>
+      </c>
+      <c r="H91" s="5">
+        <f t="shared" ref="H91:H94" si="46">E$90/E91/(A91/A$90)</f>
+        <v>0.78216560509554145</v>
+      </c>
+      <c r="I91" s="17">
+        <f t="shared" ref="I91:I94" si="47">F91/($A$2/A91)*1000</f>
+        <v>1.617045236068005E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>20</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6">
+        <f t="shared" si="43"/>
+        <v>20</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="44"/>
+        <v>32</v>
+      </c>
+      <c r="E92" s="6">
+        <v>447.6</v>
+      </c>
+      <c r="F92" s="5">
+        <f>E92/25</f>
+        <v>17.904</v>
+      </c>
+      <c r="G92" s="10">
+        <f t="shared" si="45"/>
+        <v>3.703753351206434</v>
+      </c>
+      <c r="H92" s="5">
+        <f t="shared" si="46"/>
+        <v>0.74075067024128682</v>
+      </c>
+      <c r="I92" s="17">
+        <f t="shared" si="47"/>
+        <v>1.707453285359847E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>40</v>
+      </c>
+      <c r="B93" s="6">
+        <v>1</v>
+      </c>
+      <c r="C93" s="6">
+        <f t="shared" si="43"/>
+        <v>40</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="44"/>
+        <v>16</v>
+      </c>
+      <c r="E93" s="6">
+        <v>263.8</v>
+      </c>
+      <c r="F93" s="5">
+        <f t="shared" ref="F93:F94" si="48">E93/25</f>
+        <v>10.552</v>
+      </c>
+      <c r="G93" s="10">
+        <f t="shared" si="45"/>
+        <v>6.2843062926459439</v>
+      </c>
+      <c r="H93" s="5">
+        <f t="shared" si="46"/>
+        <v>0.62843062926459436</v>
+      </c>
+      <c r="I93" s="17">
+        <f t="shared" si="47"/>
+        <v>2.0126281352901145E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>60</v>
+      </c>
+      <c r="B94" s="6">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6">
+        <f t="shared" si="43"/>
+        <v>60</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="44"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="E94" s="6">
+        <v>228.6</v>
+      </c>
+      <c r="F94" s="5">
+        <f t="shared" si="48"/>
         <v>9.1440000000000001</v>
       </c>
-      <c r="G80" s="10">
-        <f t="shared" si="34"/>
+      <c r="G94" s="10">
+        <f t="shared" si="45"/>
         <v>7.2519685039370074</v>
       </c>
-      <c r="H80" s="5">
-        <f t="shared" si="35"/>
+      <c r="H94" s="5">
+        <f t="shared" si="46"/>
         <v>0.48346456692913381</v>
       </c>
-      <c r="I80" s="17">
-        <f t="shared" si="36"/>
+      <c r="I94" s="17">
+        <f t="shared" si="47"/>
         <v>2.6161114010272182E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D98" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7" t="s">
+      <c r="E98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G98" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>5</v>
       </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="6">
-        <f t="shared" ref="C85:C89" si="38">A85/B85</f>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6">
+        <f t="shared" ref="C99:C103" si="49">A99/B99</f>
         <v>5</v>
       </c>
-      <c r="D85" s="6">
-        <f>2560/A85</f>
+      <c r="D99" s="6">
+        <f>2560/A99</f>
         <v>512</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E99" s="6">
         <v>1718.6</v>
       </c>
-      <c r="F85" s="5">
-        <f>E85/10</f>
+      <c r="F99" s="5">
+        <f>E99/10</f>
         <v>171.85999999999999</v>
       </c>
-      <c r="G85" s="10">
-        <f>E$85/E85</f>
-        <v>1</v>
-      </c>
-      <c r="H85" s="5">
-        <f>E$85/E85/(A85/A$85)</f>
-        <v>1</v>
-      </c>
-      <c r="I85" s="17">
-        <f>F85/($A$2/A85)*1000</f>
+      <c r="G99" s="10">
+        <f>E$99/E99</f>
+        <v>1</v>
+      </c>
+      <c r="H99" s="5">
+        <f>E$99/E99/(A99/A$99)</f>
+        <v>1</v>
+      </c>
+      <c r="I99" s="17">
+        <f>F99/($A$2/A99)*1000</f>
         <v>4.0974491960168578E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <v>10</v>
       </c>
-      <c r="B86" s="6">
-        <v>1</v>
-      </c>
-      <c r="C86" s="6">
-        <f t="shared" si="38"/>
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6">
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
-      <c r="D86" s="5">
-        <f t="shared" ref="D86:D89" si="39">2560/A86</f>
+      <c r="D100" s="5">
+        <f t="shared" ref="D100:D103" si="50">2560/A100</f>
         <v>256</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E100" s="6">
         <v>937.8</v>
       </c>
-      <c r="F86" s="5">
-        <f t="shared" ref="F86:F89" si="40">E86/10</f>
+      <c r="F100" s="5">
+        <f t="shared" ref="F100:F103" si="51">E100/10</f>
         <v>93.78</v>
       </c>
-      <c r="G86" s="10">
-        <f t="shared" ref="G86:G89" si="41">E$85/E86</f>
+      <c r="G100" s="10">
+        <f t="shared" ref="G100:G103" si="52">E$99/E100</f>
         <v>1.8325869055235657</v>
       </c>
-      <c r="H86" s="5">
-        <f t="shared" ref="H86:H89" si="42">E$85/E86/(A86/A$85)</f>
+      <c r="H100" s="5">
+        <f t="shared" ref="H100:H103" si="53">E$99/E100/(A100/A$99)</f>
         <v>0.91629345276178287</v>
       </c>
-      <c r="I86" s="17">
-        <f t="shared" ref="I86:I89" si="43">F86/($A$2/A86)*1000</f>
+      <c r="I100" s="17">
+        <f t="shared" ref="I100:I103" si="54">F100/($A$2/A100)*1000</f>
         <v>4.4717652228844523E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <v>20</v>
       </c>
-      <c r="B87" s="6">
-        <v>1</v>
-      </c>
-      <c r="C87" s="6">
-        <f t="shared" si="38"/>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6">
+        <f t="shared" si="49"/>
         <v>20</v>
       </c>
-      <c r="D87" s="5">
-        <f t="shared" si="39"/>
+      <c r="D101" s="5">
+        <f t="shared" si="50"/>
         <v>128</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E101" s="6">
         <v>509.2</v>
       </c>
-      <c r="F87" s="5">
-        <f t="shared" si="40"/>
+      <c r="F101" s="5">
+        <f t="shared" si="51"/>
         <v>50.92</v>
       </c>
-      <c r="G87" s="10">
-        <f t="shared" si="41"/>
+      <c r="G101" s="10">
+        <f t="shared" si="52"/>
         <v>3.3750981932443045</v>
       </c>
-      <c r="H87" s="5">
-        <f t="shared" si="42"/>
+      <c r="H101" s="5">
+        <f t="shared" si="53"/>
         <v>0.84377454831107612</v>
       </c>
-      <c r="I87" s="17">
-        <f t="shared" si="43"/>
+      <c r="I101" s="17">
+        <f t="shared" si="54"/>
         <v>4.8560947995153828E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
         <v>40</v>
       </c>
-      <c r="B88" s="6">
-        <v>1</v>
-      </c>
-      <c r="C88" s="6">
-        <f t="shared" si="38"/>
+      <c r="B102" s="6">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6">
+        <f t="shared" si="49"/>
         <v>40</v>
       </c>
-      <c r="D88" s="5">
-        <f t="shared" si="39"/>
+      <c r="D102" s="5">
+        <f t="shared" si="50"/>
         <v>64</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E102" s="6">
         <v>429.2</v>
       </c>
-      <c r="F88" s="5">
-        <f t="shared" si="40"/>
+      <c r="F102" s="5">
+        <f t="shared" si="51"/>
         <v>42.92</v>
       </c>
-      <c r="G88" s="10">
-        <f t="shared" si="41"/>
+      <c r="G102" s="10">
+        <f t="shared" si="52"/>
         <v>4.0041938490214353</v>
       </c>
-      <c r="H88" s="5">
-        <f t="shared" si="42"/>
+      <c r="H102" s="5">
+        <f t="shared" si="53"/>
         <v>0.50052423112767941</v>
       </c>
-      <c r="I88" s="17">
-        <f t="shared" si="43"/>
+      <c r="I102" s="17">
+        <f t="shared" si="54"/>
         <v>8.1863153493794277E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>60</v>
       </c>
-      <c r="B89" s="6">
-        <v>1</v>
-      </c>
-      <c r="C89" s="6">
-        <f t="shared" si="38"/>
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" si="49"/>
         <v>60</v>
       </c>
-      <c r="D89" s="5">
-        <f t="shared" si="39"/>
+      <c r="D103" s="5">
+        <f t="shared" si="50"/>
         <v>42.666666666666664</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E103" s="6">
         <v>263.7</v>
       </c>
-      <c r="F89" s="5">
-        <f t="shared" si="40"/>
+      <c r="F103" s="5">
+        <f t="shared" si="51"/>
         <v>26.369999999999997</v>
       </c>
-      <c r="G89" s="10">
-        <f t="shared" si="41"/>
+      <c r="G103" s="10">
+        <f t="shared" si="52"/>
         <v>6.5172544558210088</v>
       </c>
-      <c r="H89" s="5">
-        <f t="shared" si="42"/>
+      <c r="H103" s="5">
+        <f t="shared" si="53"/>
         <v>0.54310453798508407</v>
       </c>
-      <c r="I89" s="17">
-        <f t="shared" si="43"/>
+      <c r="I103" s="17">
+        <f t="shared" si="54"/>
         <v>7.5444944931198313E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F90" s="2"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F104" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
